--- a/natmiOut/OldD4/LR-pairs_lrc2p/Angpt2-Tek.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Angpt2-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.9698525523202</v>
+        <v>14.63579533333333</v>
       </c>
       <c r="H2">
-        <v>11.9698525523202</v>
+        <v>43.907386</v>
       </c>
       <c r="I2">
-        <v>0.4904946728964582</v>
+        <v>0.5302013885981138</v>
       </c>
       <c r="J2">
-        <v>0.4904946728964582</v>
+        <v>0.5956171121393221</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>56.7837376171942</v>
+        <v>58.63918933333334</v>
       </c>
       <c r="N2">
-        <v>56.7837376171942</v>
+        <v>175.917568</v>
       </c>
       <c r="O2">
-        <v>0.9267119681372367</v>
+        <v>0.915320670669077</v>
       </c>
       <c r="P2">
-        <v>0.9267119681372367</v>
+        <v>0.923685878527411</v>
       </c>
       <c r="Q2">
-        <v>679.6929666474525</v>
+        <v>858.23117359525</v>
       </c>
       <c r="R2">
-        <v>679.6929666474525</v>
+        <v>7724.08056235725</v>
       </c>
       <c r="S2">
-        <v>0.4545472836807068</v>
+        <v>0.4853042906013014</v>
       </c>
       <c r="T2">
-        <v>0.4545472836807068</v>
+        <v>0.5501631154923692</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.9698525523202</v>
+        <v>14.63579533333333</v>
       </c>
       <c r="H3">
-        <v>11.9698525523202</v>
+        <v>43.907386</v>
       </c>
       <c r="I3">
-        <v>0.4904946728964582</v>
+        <v>0.5302013885981138</v>
       </c>
       <c r="J3">
-        <v>0.4904946728964582</v>
+        <v>0.5956171121393221</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.29472873538252</v>
+        <v>3.605681</v>
       </c>
       <c r="N3">
-        <v>3.29472873538252</v>
+        <v>10.817043</v>
       </c>
       <c r="O3">
-        <v>0.05377005246516409</v>
+        <v>0.05628240070608663</v>
       </c>
       <c r="P3">
-        <v>0.05377005246516409</v>
+        <v>0.0567967712384688</v>
       </c>
       <c r="Q3">
-        <v>39.43741716242116</v>
+        <v>52.77200915328867</v>
       </c>
       <c r="R3">
-        <v>39.43741716242116</v>
+        <v>474.948082379598</v>
       </c>
       <c r="S3">
-        <v>0.02637392429552605</v>
+        <v>0.02984100700800259</v>
       </c>
       <c r="T3">
-        <v>0.02637392429552605</v>
+        <v>0.0338291288638945</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.9698525523202</v>
+        <v>14.63579533333333</v>
       </c>
       <c r="H4">
-        <v>11.9698525523202</v>
+        <v>43.907386</v>
       </c>
       <c r="I4">
-        <v>0.4904946728964582</v>
+        <v>0.5302013885981138</v>
       </c>
       <c r="J4">
-        <v>0.4904946728964582</v>
+        <v>0.5956171121393221</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.19595285162752</v>
+        <v>0.045876</v>
       </c>
       <c r="N4">
-        <v>1.19595285162752</v>
+        <v>0.137628</v>
       </c>
       <c r="O4">
-        <v>0.01951797939759928</v>
+        <v>0.0007160953547450344</v>
       </c>
       <c r="P4">
-        <v>0.01951797939759928</v>
+        <v>0.0007226398223625426</v>
       </c>
       <c r="Q4">
-        <v>14.31537929350829</v>
+        <v>0.671431746712</v>
       </c>
       <c r="R4">
-        <v>14.31537929350829</v>
+        <v>6.042885720408</v>
       </c>
       <c r="S4">
-        <v>0.00957346492022527</v>
+        <v>0.0003796747514544762</v>
       </c>
       <c r="T4">
-        <v>0.00957346492022527</v>
+        <v>0.0004304166441124504</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.823695917156494</v>
+        <v>14.63579533333333</v>
       </c>
       <c r="H5">
-        <v>0.823695917156494</v>
+        <v>43.907386</v>
       </c>
       <c r="I5">
-        <v>0.03375300219329009</v>
+        <v>0.5302013885981138</v>
       </c>
       <c r="J5">
-        <v>0.03375300219329009</v>
+        <v>0.5956171121393221</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>56.7837376171942</v>
+        <v>0.03279</v>
       </c>
       <c r="N5">
-        <v>56.7837376171942</v>
+        <v>0.09837</v>
       </c>
       <c r="O5">
-        <v>0.9267119681372367</v>
+        <v>0.0005118311684124526</v>
       </c>
       <c r="P5">
-        <v>0.9267119681372367</v>
+        <v>0.0005165088450446371</v>
       </c>
       <c r="Q5">
-        <v>46.77253283616849</v>
+        <v>0.47990772898</v>
       </c>
       <c r="R5">
-        <v>46.77253283616849</v>
+        <v>4.31916956082</v>
       </c>
       <c r="S5">
-        <v>0.03127931109308432</v>
+        <v>0.0002713735962200774</v>
       </c>
       <c r="T5">
-        <v>0.03127931109308432</v>
+        <v>0.0003076415066799034</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.823695917156494</v>
+        <v>14.63579533333333</v>
       </c>
       <c r="H6">
-        <v>0.823695917156494</v>
+        <v>43.907386</v>
       </c>
       <c r="I6">
-        <v>0.03375300219329009</v>
+        <v>0.5302013885981138</v>
       </c>
       <c r="J6">
-        <v>0.03375300219329009</v>
+        <v>0.5956171121393221</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.29472873538252</v>
+        <v>1.7405575</v>
       </c>
       <c r="N6">
-        <v>3.29472873538252</v>
+        <v>3.481115</v>
       </c>
       <c r="O6">
-        <v>0.05377005246516409</v>
+        <v>0.02716900210167909</v>
       </c>
       <c r="P6">
-        <v>0.05377005246516409</v>
+        <v>0.01827820156671304</v>
       </c>
       <c r="Q6">
-        <v>2.713854607472761</v>
+        <v>25.47444333589834</v>
       </c>
       <c r="R6">
-        <v>2.713854607472761</v>
+        <v>152.84666001539</v>
       </c>
       <c r="S6">
-        <v>0.001814900698790007</v>
+        <v>0.01440504264113533</v>
       </c>
       <c r="T6">
-        <v>0.001814900698790007</v>
+        <v>0.01088680963226605</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.823695917156494</v>
+        <v>0.8770593333333333</v>
       </c>
       <c r="H7">
-        <v>0.823695917156494</v>
+        <v>2.631178</v>
       </c>
       <c r="I7">
-        <v>0.03375300219329009</v>
+        <v>0.03177265504370512</v>
       </c>
       <c r="J7">
-        <v>0.03375300219329009</v>
+        <v>0.03569273383490688</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.19595285162752</v>
+        <v>58.63918933333334</v>
       </c>
       <c r="N7">
-        <v>1.19595285162752</v>
+        <v>175.917568</v>
       </c>
       <c r="O7">
-        <v>0.01951797939759928</v>
+        <v>0.915320670669077</v>
       </c>
       <c r="P7">
-        <v>0.01951797939759928</v>
+        <v>0.923685878527411</v>
       </c>
       <c r="Q7">
-        <v>0.9851014809972545</v>
+        <v>51.43004830390045</v>
       </c>
       <c r="R7">
-        <v>0.9851014809972545</v>
+        <v>462.870434735104</v>
       </c>
       <c r="S7">
-        <v>0.0006587904014157593</v>
+        <v>0.0290821679235414</v>
       </c>
       <c r="T7">
-        <v>0.0006587904014157593</v>
+        <v>0.03296887420934101</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,122 +903,122 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.52781850100652</v>
+        <v>0.8770593333333333</v>
       </c>
       <c r="H8">
-        <v>1.52781850100652</v>
+        <v>2.631178</v>
       </c>
       <c r="I8">
-        <v>0.06260618772209448</v>
+        <v>0.03177265504370512</v>
       </c>
       <c r="J8">
-        <v>0.06260618772209448</v>
+        <v>0.03569273383490688</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>56.7837376171942</v>
+        <v>3.605681</v>
       </c>
       <c r="N8">
-        <v>56.7837376171942</v>
+        <v>10.817043</v>
       </c>
       <c r="O8">
-        <v>0.9267119681372367</v>
+        <v>0.05628240070608663</v>
       </c>
       <c r="P8">
-        <v>0.9267119681372367</v>
+        <v>0.0567967712384688</v>
       </c>
       <c r="Q8">
-        <v>86.75524488784917</v>
+        <v>3.162396174072667</v>
       </c>
       <c r="R8">
-        <v>86.75524488784917</v>
+        <v>28.461565566654</v>
       </c>
       <c r="S8">
-        <v>0.05801790344151148</v>
+        <v>0.001788241302666076</v>
       </c>
       <c r="T8">
-        <v>0.05801790344151148</v>
+        <v>0.002027232038496762</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.52781850100652</v>
+        <v>0.8770593333333333</v>
       </c>
       <c r="H9">
-        <v>1.52781850100652</v>
+        <v>2.631178</v>
       </c>
       <c r="I9">
-        <v>0.06260618772209448</v>
+        <v>0.03177265504370512</v>
       </c>
       <c r="J9">
-        <v>0.06260618772209448</v>
+        <v>0.03569273383490688</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.29472873538252</v>
+        <v>0.045876</v>
       </c>
       <c r="N9">
-        <v>3.29472873538252</v>
+        <v>0.137628</v>
       </c>
       <c r="O9">
-        <v>0.05377005246516409</v>
+        <v>0.0007160953547450344</v>
       </c>
       <c r="P9">
-        <v>0.05377005246516409</v>
+        <v>0.0007226398223625426</v>
       </c>
       <c r="Q9">
-        <v>5.033747517715229</v>
+        <v>0.040235973976</v>
       </c>
       <c r="R9">
-        <v>5.033747517715229</v>
+        <v>0.362123765784</v>
       </c>
       <c r="S9">
-        <v>0.003366337998460932</v>
+        <v>2.275225068471362E-05</v>
       </c>
       <c r="T9">
-        <v>0.003366337998460932</v>
+        <v>2.579299083809063E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.52781850100652</v>
+        <v>0.8770593333333333</v>
       </c>
       <c r="H10">
-        <v>1.52781850100652</v>
+        <v>2.631178</v>
       </c>
       <c r="I10">
-        <v>0.06260618772209448</v>
+        <v>0.03177265504370512</v>
       </c>
       <c r="J10">
-        <v>0.06260618772209448</v>
+        <v>0.03569273383490688</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.19595285162752</v>
+        <v>0.03279</v>
       </c>
       <c r="N10">
-        <v>1.19595285162752</v>
+        <v>0.09837</v>
       </c>
       <c r="O10">
-        <v>0.01951797939759928</v>
+        <v>0.0005118311684124526</v>
       </c>
       <c r="P10">
-        <v>0.01951797939759928</v>
+        <v>0.0005165088450446371</v>
       </c>
       <c r="Q10">
-        <v>1.827198893048031</v>
+        <v>0.02875877554</v>
       </c>
       <c r="R10">
-        <v>1.827198893048031</v>
+        <v>0.25882897986</v>
       </c>
       <c r="S10">
-        <v>0.001221946282122073</v>
+        <v>1.62622351545854E-05</v>
       </c>
       <c r="T10">
-        <v>0.001221946282122073</v>
+        <v>1.843561272955339E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,60 +1089,60 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.3985445819815</v>
+        <v>0.8770593333333333</v>
       </c>
       <c r="H11">
-        <v>1.3985445819815</v>
+        <v>2.631178</v>
       </c>
       <c r="I11">
-        <v>0.05730886527396376</v>
+        <v>0.03177265504370512</v>
       </c>
       <c r="J11">
-        <v>0.05730886527396376</v>
+        <v>0.03569273383490688</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>56.7837376171942</v>
+        <v>1.7405575</v>
       </c>
       <c r="N11">
-        <v>56.7837376171942</v>
+        <v>3.481115</v>
       </c>
       <c r="O11">
-        <v>0.9267119681372367</v>
+        <v>0.02716900210167909</v>
       </c>
       <c r="P11">
-        <v>0.9267119681372367</v>
+        <v>0.01827820156671304</v>
       </c>
       <c r="Q11">
-        <v>79.41458858918602</v>
+        <v>1.526572200578333</v>
       </c>
       <c r="R11">
-        <v>79.41458858918602</v>
+        <v>9.15943320347</v>
       </c>
       <c r="S11">
-        <v>0.05310881132974669</v>
+        <v>0.0008632313316583492</v>
       </c>
       <c r="T11">
-        <v>0.05310881132974669</v>
+        <v>0.0006523989835014666</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,60 +1151,60 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.3985445819815</v>
+        <v>1.561394</v>
       </c>
       <c r="H12">
-        <v>1.3985445819815</v>
+        <v>4.684182</v>
       </c>
       <c r="I12">
-        <v>0.05730886527396376</v>
+        <v>0.05656359959224832</v>
       </c>
       <c r="J12">
-        <v>0.05730886527396376</v>
+        <v>0.06354236063096523</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.29472873538252</v>
+        <v>58.63918933333334</v>
       </c>
       <c r="N12">
-        <v>3.29472873538252</v>
+        <v>175.917568</v>
       </c>
       <c r="O12">
-        <v>0.05377005246516409</v>
+        <v>0.915320670669077</v>
       </c>
       <c r="P12">
-        <v>0.05377005246516409</v>
+        <v>0.923685878527411</v>
       </c>
       <c r="Q12">
-        <v>4.607825021967982</v>
+        <v>91.55887838993068</v>
       </c>
       <c r="R12">
-        <v>4.607825021967982</v>
+        <v>824.029905509376</v>
       </c>
       <c r="S12">
-        <v>0.003081500692500052</v>
+        <v>0.05177383191423386</v>
       </c>
       <c r="T12">
-        <v>0.003081500692500052</v>
+        <v>0.05869318120311869</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.3985445819815</v>
+        <v>1.561394</v>
       </c>
       <c r="H13">
-        <v>1.3985445819815</v>
+        <v>4.684182</v>
       </c>
       <c r="I13">
-        <v>0.05730886527396376</v>
+        <v>0.05656359959224832</v>
       </c>
       <c r="J13">
-        <v>0.05730886527396376</v>
+        <v>0.06354236063096523</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.19595285162752</v>
+        <v>3.605681</v>
       </c>
       <c r="N13">
-        <v>1.19595285162752</v>
+        <v>10.817043</v>
       </c>
       <c r="O13">
-        <v>0.01951797939759928</v>
+        <v>0.05628240070608663</v>
       </c>
       <c r="P13">
-        <v>0.01951797939759928</v>
+        <v>0.0567967712384688</v>
       </c>
       <c r="Q13">
-        <v>1.672593380948993</v>
+        <v>5.629888679314</v>
       </c>
       <c r="R13">
-        <v>1.672593380948993</v>
+        <v>50.668998113826</v>
       </c>
       <c r="S13">
-        <v>0.001118553251717018</v>
+        <v>0.003183535177629558</v>
       </c>
       <c r="T13">
-        <v>0.001118553251717018</v>
+        <v>0.003609000920709218</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,60 +1275,60 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.68372260249174</v>
+        <v>1.561394</v>
       </c>
       <c r="H14">
-        <v>8.68372260249174</v>
+        <v>4.684182</v>
       </c>
       <c r="I14">
-        <v>0.3558372719141935</v>
+        <v>0.05656359959224832</v>
       </c>
       <c r="J14">
-        <v>0.3558372719141935</v>
+        <v>0.06354236063096523</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>56.7837376171942</v>
+        <v>0.045876</v>
       </c>
       <c r="N14">
-        <v>56.7837376171942</v>
+        <v>0.137628</v>
       </c>
       <c r="O14">
-        <v>0.9267119681372367</v>
+        <v>0.0007160953547450344</v>
       </c>
       <c r="P14">
-        <v>0.9267119681372367</v>
+        <v>0.0007226398223625426</v>
       </c>
       <c r="Q14">
-        <v>493.0942258003897</v>
+        <v>0.071630511144</v>
       </c>
       <c r="R14">
-        <v>493.0942258003897</v>
+        <v>0.644674600296</v>
       </c>
       <c r="S14">
-        <v>0.3297586585921873</v>
+        <v>4.050493091566714E-05</v>
       </c>
       <c r="T14">
-        <v>0.3297586585921873</v>
+        <v>4.591824019885734E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1337,60 +1337,60 @@
         <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.68372260249174</v>
+        <v>1.561394</v>
       </c>
       <c r="H15">
-        <v>8.68372260249174</v>
+        <v>4.684182</v>
       </c>
       <c r="I15">
-        <v>0.3558372719141935</v>
+        <v>0.05656359959224832</v>
       </c>
       <c r="J15">
-        <v>0.3558372719141935</v>
+        <v>0.06354236063096523</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>3.29472873538252</v>
+        <v>0.03279</v>
       </c>
       <c r="N15">
-        <v>3.29472873538252</v>
+        <v>0.09837</v>
       </c>
       <c r="O15">
-        <v>0.05377005246516409</v>
+        <v>0.0005118311684124526</v>
       </c>
       <c r="P15">
-        <v>0.05377005246516409</v>
+        <v>0.0005165088450446371</v>
       </c>
       <c r="Q15">
-        <v>28.61051038852021</v>
+        <v>0.05119810926</v>
       </c>
       <c r="R15">
-        <v>28.61051038852021</v>
+        <v>0.46078298334</v>
       </c>
       <c r="S15">
-        <v>0.01913338877988705</v>
+        <v>2.895101326891459E-05</v>
       </c>
       <c r="T15">
-        <v>0.01913338877988705</v>
+        <v>3.282019130090966E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,52 +1402,672 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.68372260249174</v>
+        <v>1.561394</v>
       </c>
       <c r="H16">
-        <v>8.68372260249174</v>
+        <v>4.684182</v>
       </c>
       <c r="I16">
-        <v>0.3558372719141935</v>
+        <v>0.05656359959224832</v>
       </c>
       <c r="J16">
-        <v>0.3558372719141935</v>
+        <v>0.06354236063096523</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.19595285162752</v>
+        <v>1.7405575</v>
       </c>
       <c r="N16">
-        <v>1.19595285162752</v>
+        <v>3.481115</v>
       </c>
       <c r="O16">
-        <v>0.01951797939759928</v>
+        <v>0.02716900210167909</v>
       </c>
       <c r="P16">
-        <v>0.01951797939759928</v>
+        <v>0.01827820156671304</v>
       </c>
       <c r="Q16">
-        <v>10.38532280919235</v>
+        <v>2.717696037155</v>
       </c>
       <c r="R16">
-        <v>10.38532280919235</v>
+        <v>16.30617622293</v>
       </c>
       <c r="S16">
-        <v>0.006945224542119162</v>
+        <v>0.001536776556200329</v>
       </c>
       <c r="T16">
-        <v>0.006945224542119162</v>
+        <v>0.001161440075637554</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.434782</v>
+      </c>
+      <c r="H17">
+        <v>4.304346</v>
+      </c>
+      <c r="I17">
+        <v>0.0519769094476892</v>
+      </c>
+      <c r="J17">
+        <v>0.05838976918754494</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>58.63918933333334</v>
+      </c>
+      <c r="N17">
+        <v>175.917568</v>
+      </c>
+      <c r="O17">
+        <v>0.915320670669077</v>
+      </c>
+      <c r="P17">
+        <v>0.923685878527411</v>
+      </c>
+      <c r="Q17">
+        <v>84.13445335005868</v>
+      </c>
+      <c r="R17">
+        <v>757.210080150528</v>
+      </c>
+      <c r="S17">
+        <v>0.04757553961496476</v>
+      </c>
+      <c r="T17">
+        <v>0.0539338052490102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.434782</v>
+      </c>
+      <c r="H18">
+        <v>4.304346</v>
+      </c>
+      <c r="I18">
+        <v>0.0519769094476892</v>
+      </c>
+      <c r="J18">
+        <v>0.05838976918754494</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>3.605681</v>
+      </c>
+      <c r="N18">
+        <v>10.817043</v>
+      </c>
+      <c r="O18">
+        <v>0.05628240070608663</v>
+      </c>
+      <c r="P18">
+        <v>0.0567967712384688</v>
+      </c>
+      <c r="Q18">
+        <v>5.173366196542</v>
+      </c>
+      <c r="R18">
+        <v>46.560295768878</v>
+      </c>
+      <c r="S18">
+        <v>0.002925385244998823</v>
+      </c>
+      <c r="T18">
+        <v>0.003316350363211984</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.434782</v>
+      </c>
+      <c r="H19">
+        <v>4.304346</v>
+      </c>
+      <c r="I19">
+        <v>0.0519769094476892</v>
+      </c>
+      <c r="J19">
+        <v>0.05838976918754494</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.045876</v>
+      </c>
+      <c r="N19">
+        <v>0.137628</v>
+      </c>
+      <c r="O19">
+        <v>0.0007160953547450344</v>
+      </c>
+      <c r="P19">
+        <v>0.0007226398223625426</v>
+      </c>
+      <c r="Q19">
+        <v>0.065822059032</v>
+      </c>
+      <c r="R19">
+        <v>0.592398531288</v>
+      </c>
+      <c r="S19">
+        <v>3.722042340949353E-05</v>
+      </c>
+      <c r="T19">
+        <v>4.219477243347734E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.434782</v>
+      </c>
+      <c r="H20">
+        <v>4.304346</v>
+      </c>
+      <c r="I20">
+        <v>0.0519769094476892</v>
+      </c>
+      <c r="J20">
+        <v>0.05838976918754494</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.03279</v>
+      </c>
+      <c r="N20">
+        <v>0.09837</v>
+      </c>
+      <c r="O20">
+        <v>0.0005118311684124526</v>
+      </c>
+      <c r="P20">
+        <v>0.0005165088450446371</v>
+      </c>
+      <c r="Q20">
+        <v>0.04704650178</v>
+      </c>
+      <c r="R20">
+        <v>0.42341851602</v>
+      </c>
+      <c r="S20">
+        <v>2.660340229307901E-05</v>
+      </c>
+      <c r="T20">
+        <v>3.015883224548177E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1.434782</v>
+      </c>
+      <c r="H21">
+        <v>4.304346</v>
+      </c>
+      <c r="I21">
+        <v>0.0519769094476892</v>
+      </c>
+      <c r="J21">
+        <v>0.05838976918754494</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.7405575</v>
+      </c>
+      <c r="N21">
+        <v>3.481115</v>
+      </c>
+      <c r="O21">
+        <v>0.02716900210167909</v>
+      </c>
+      <c r="P21">
+        <v>0.01827820156671304</v>
+      </c>
+      <c r="Q21">
+        <v>2.497320570965</v>
+      </c>
+      <c r="R21">
+        <v>14.98392342579</v>
+      </c>
+      <c r="S21">
+        <v>0.001412160762023052</v>
+      </c>
+      <c r="T21">
+        <v>0.001067259970643797</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>9.095188500000001</v>
+      </c>
+      <c r="H22">
+        <v>18.190377</v>
+      </c>
+      <c r="I22">
+        <v>0.3294854473182436</v>
+      </c>
+      <c r="J22">
+        <v>0.2467580242072608</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>58.63918933333334</v>
+      </c>
+      <c r="N22">
+        <v>175.917568</v>
+      </c>
+      <c r="O22">
+        <v>0.915320670669077</v>
+      </c>
+      <c r="P22">
+        <v>0.923685878527411</v>
+      </c>
+      <c r="Q22">
+        <v>533.3344804738562</v>
+      </c>
+      <c r="R22">
+        <v>3200.006882843137</v>
+      </c>
+      <c r="S22">
+        <v>0.3015848406150356</v>
+      </c>
+      <c r="T22">
+        <v>0.2279269023735719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>9.095188500000001</v>
+      </c>
+      <c r="H23">
+        <v>18.190377</v>
+      </c>
+      <c r="I23">
+        <v>0.3294854473182436</v>
+      </c>
+      <c r="J23">
+        <v>0.2467580242072608</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>3.605681</v>
+      </c>
+      <c r="N23">
+        <v>10.817043</v>
+      </c>
+      <c r="O23">
+        <v>0.05628240070608663</v>
+      </c>
+      <c r="P23">
+        <v>0.0567967712384688</v>
+      </c>
+      <c r="Q23">
+        <v>32.7943483658685</v>
+      </c>
+      <c r="R23">
+        <v>196.766090195211</v>
+      </c>
+      <c r="S23">
+        <v>0.01854423197278959</v>
+      </c>
+      <c r="T23">
+        <v>0.01401505905215634</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>9.095188500000001</v>
+      </c>
+      <c r="H24">
+        <v>18.190377</v>
+      </c>
+      <c r="I24">
+        <v>0.3294854473182436</v>
+      </c>
+      <c r="J24">
+        <v>0.2467580242072608</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.045876</v>
+      </c>
+      <c r="N24">
+        <v>0.137628</v>
+      </c>
+      <c r="O24">
+        <v>0.0007160953547450344</v>
+      </c>
+      <c r="P24">
+        <v>0.0007226398223625426</v>
+      </c>
+      <c r="Q24">
+        <v>0.4172508676260001</v>
+      </c>
+      <c r="R24">
+        <v>2.503505205756</v>
+      </c>
+      <c r="S24">
+        <v>0.000235942998280684</v>
+      </c>
+      <c r="T24">
+        <v>0.0001783171747796669</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>9.095188500000001</v>
+      </c>
+      <c r="H25">
+        <v>18.190377</v>
+      </c>
+      <c r="I25">
+        <v>0.3294854473182436</v>
+      </c>
+      <c r="J25">
+        <v>0.2467580242072608</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M25">
+        <v>0.03279</v>
+      </c>
+      <c r="N25">
+        <v>0.09837</v>
+      </c>
+      <c r="O25">
+        <v>0.0005118311684124526</v>
+      </c>
+      <c r="P25">
+        <v>0.0005165088450446371</v>
+      </c>
+      <c r="Q25">
+        <v>0.298231230915</v>
+      </c>
+      <c r="R25">
+        <v>1.78938738549</v>
+      </c>
+      <c r="S25">
+        <v>0.0001686409214757963</v>
+      </c>
+      <c r="T25">
+        <v>0.0001274527020887889</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>9.095188500000001</v>
+      </c>
+      <c r="H26">
+        <v>18.190377</v>
+      </c>
+      <c r="I26">
+        <v>0.3294854473182436</v>
+      </c>
+      <c r="J26">
+        <v>0.2467580242072608</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.7405575</v>
+      </c>
+      <c r="N26">
+        <v>3.481115</v>
+      </c>
+      <c r="O26">
+        <v>0.02716900210167909</v>
+      </c>
+      <c r="P26">
+        <v>0.01827820156671304</v>
+      </c>
+      <c r="Q26">
+        <v>15.83069855758875</v>
+      </c>
+      <c r="R26">
+        <v>63.32279423035501</v>
+      </c>
+      <c r="S26">
+        <v>0.008951790810662037</v>
+      </c>
+      <c r="T26">
+        <v>0.004510292904664169</v>
       </c>
     </row>
   </sheetData>
